--- a/experiment result/128_0.4_40_zs40_kappa_lp.xlsx
+++ b/experiment result/128_0.4_40_zs40_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0338369280151196</v>
+        <v>0.002889753320124888</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03799562591398832</v>
+        <v>0.009104667468587607</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05419913096224567</v>
+        <v>0.008812527831029688</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05528925298096601</v>
+        <v>0.01035284614229883</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04355516804547846</v>
+        <v>0.002768840295047442</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03752252506337546</v>
+        <v>0.005872821212936799</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05392022853759985</v>
+        <v>0.007963778114900212</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03436186869757187</v>
+        <v>0.003786707959954205</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04199760949752975</v>
+        <v>0.006258911039277286</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05701412700298598</v>
+        <v>0.08152276486878793</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05003124761131285</v>
+        <v>0.003934863913327287</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0400550637706531</v>
+        <v>0.008909121701003062</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05160660478906739</v>
+        <v>0.003637689573993387</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06217424748351137</v>
+        <v>0.00622019820074249</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06069706181585326</v>
+        <v>0.007674863829720049</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04209878600099623</v>
+        <v>0.002917877668866302</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0684340622117329</v>
+        <v>0.006010113187060809</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03449842194605418</v>
+        <v>0.0009435078230128052</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05162814782622029</v>
+        <v>0.01092357302970664</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04818020765140999</v>
+        <v>0.00829675881329537</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02951069811878478</v>
+        <v>0.002461178762437658</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03916233830985833</v>
+        <v>0.002412955593451381</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03571150750918667</v>
+        <v>0.00726922868420334</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03441143457484582</v>
+        <v>0.001873866985808306</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02450323945125714</v>
+        <v>0.00130178531030724</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0454272474107777</v>
+        <v>0.009150204457193205</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05583227948383622</v>
+        <v>0.005456266111920921</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04115071387169809</v>
+        <v>0.007323813269674881</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05519404881538321</v>
+        <v>0.01917425902540427</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03165202293250658</v>
+        <v>0.01452231094775097</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01963490278339391</v>
+        <v>0.0003159575415032747</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.05756409440400283</v>
+        <v>0.003648981206441392</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.05402939536569212</v>
+        <v>0.01178772829675774</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02557422117937743</v>
+        <v>0.004734348461536257</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03013346369476712</v>
+        <v>0.005978674443801654</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03984369282736701</v>
+        <v>0.01741903862718822</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03288575079863793</v>
+        <v>0.003737826630695344</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.04989181971158555</v>
+        <v>0.003959167305082919</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03801750596521196</v>
+        <v>0.005603374131796543</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.03702649095345426</v>
+        <v>0.01145108574290371</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.05239423514859772</v>
+        <v>0.04154664847237027</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03453807459419266</v>
+        <v>0.002654712308234076</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.03816289370493084</v>
+        <v>0.0105448780478903</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04453146742708587</v>
+        <v>0.007198794642270291</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.06633376786830804</v>
+        <v>0.01360121624395178</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.04945317441289405</v>
+        <v>0.006340486180299304</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06340907151478531</v>
+        <v>0.06420601261478077</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02736621731431636</v>
+        <v>0.0008852445868996006</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.04112765712434181</v>
+        <v>0.00258127792811449</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.03150309302568426</v>
+        <v>0.001007020692254113</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.04422501866279049</v>
+        <v>0.007931814957827646</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0523313847131834</v>
+        <v>0.01172715603647843</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01768536910078579</v>
+        <v>0.0006212253147697512</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02047155025133262</v>
+        <v>0.003148234657820236</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.03776216124475643</v>
+        <v>0.003471368319813169</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.05498476603551653</v>
+        <v>0.006872909026992125</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.03994290540086768</v>
+        <v>0.003737027074899196</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.05734233064910239</v>
+        <v>0.009292777144934735</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.03693304119078347</v>
+        <v>0.003933921553111434</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.04036642417122042</v>
+        <v>0.004583418951490456</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01348818706118288</v>
+        <v>0.0002752833400457867</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03066400194842589</v>
+        <v>0.001709237533931852</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.02980843391847301</v>
+        <v>0.003114085090506562</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02726776364416023</v>
+        <v>0.001351836735857584</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.05354716785585403</v>
+        <v>0.003041665127856824</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.04783606945890871</v>
+        <v>0.006277188318796555</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.04666560311220869</v>
+        <v>0.007578684338546207</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.03141996178359265</v>
+        <v>0.002589831205400632</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02746423190438425</v>
+        <v>0.003326345407103996</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02894380558304828</v>
+        <v>0.004614837850979136</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.04446903621793983</v>
+        <v>0.006856854470853072</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.02688992707259037</v>
+        <v>0.002024297784911508</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.05322919129024527</v>
+        <v>0.007936582612343828</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.02876647721368129</v>
+        <v>0.003675193250242016</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.04294325950433385</v>
+        <v>0.00842333163740315</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04787346758289088</v>
+        <v>0.00740724912546771</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.02916145551976373</v>
+        <v>0.002474201280707035</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.04212176064065281</v>
+        <v>0.00704909251350175</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.05061752884719382</v>
+        <v>0.007859989012546535</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.03792376524013213</v>
+        <v>0.006395521745261165</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.04286337273043254</v>
+        <v>0.007768727240858198</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.05265164680525682</v>
+        <v>0.005980388872363641</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.04073116132455921</v>
+        <v>0.003716452804243088</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.06146193626911796</v>
+        <v>0.005139315450717811</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.07738543670409928</v>
+        <v>0.02078026658421534</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.04056379091404969</v>
+        <v>0.002893158386294325</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.03195323613168369</v>
+        <v>0.00294444741341317</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06144237517729272</v>
+        <v>0.007991361396131279</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0431949461399822</v>
+        <v>0.007647098247998374</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0424246079483207</v>
+        <v>0.0009722970714563794</v>
       </c>
     </row>
   </sheetData>
